--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3015.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3015.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.168140069390803</v>
+        <v>1.329807877540588</v>
       </c>
       <c r="B1">
-        <v>2.229647967642563</v>
+        <v>1.905376553535461</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.845742702484131</v>
       </c>
       <c r="D1">
-        <v>2.337109611375443</v>
+        <v>4.693863391876221</v>
       </c>
       <c r="E1">
-        <v>1.202139021046836</v>
+        <v>1.300175905227661</v>
       </c>
     </row>
   </sheetData>
